--- a/dataset/X/X_Variable.xlsx
+++ b/dataset/X/X_Variable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>County</t>
   </si>
@@ -40,37 +40,40 @@
     <t xml:space="preserve">Pierce(IND) </t>
   </si>
   <si>
-    <t>Blank_Votes</t>
-  </si>
-  <si>
-    <t>Void_Votes</t>
-  </si>
-  <si>
-    <t>Total_Votes</t>
-  </si>
-  <si>
-    <t>Total_Pop</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>African_American</t>
-  </si>
-  <si>
-    <t>Native_American</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Hawaiian/Pacific_Islander</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Two_or_more_races</t>
+    <t>Blank_Votes_2020</t>
+  </si>
+  <si>
+    <t>Void_Votes_2020</t>
+  </si>
+  <si>
+    <t>Total_Votes_2020</t>
+  </si>
+  <si>
+    <t>Clinton_Kaine(DEM)</t>
+  </si>
+  <si>
+    <t>Trump_Pence(REP)</t>
+  </si>
+  <si>
+    <t>Trump_Pence(CON)</t>
+  </si>
+  <si>
+    <t>Clinton_Kaine(WOR)</t>
+  </si>
+  <si>
+    <t>Clinton_Kaine(WEP)</t>
+  </si>
+  <si>
+    <t>Blank_2016</t>
+  </si>
+  <si>
+    <t>Void_2016</t>
+  </si>
+  <si>
+    <t>Scattering_2016</t>
+  </si>
+  <si>
+    <t>Total_2016</t>
   </si>
   <si>
     <t>Total_Labor</t>
@@ -285,15 +288,46 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -315,6 +349,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -323,19 +365,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,7 +380,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,14 +397,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,14 +425,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,29 +441,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,7 +455,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,31 +563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,84 +593,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -596,19 +605,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,18 +639,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -646,11 +649,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,21 +708,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -720,26 +732,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,13 +751,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,135 +769,144 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,15 +1228,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z63"/>
+  <dimension ref="A1:AA63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="17.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="16.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="19.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="18.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="25.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="16.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="21.4285714285714" customWidth="1"/>
+    <col min="13" max="13" width="19.1428571428571" customWidth="1"/>
+    <col min="14" max="14" width="21.2857142857143" customWidth="1"/>
+    <col min="15" max="15" width="20.4285714285714" customWidth="1"/>
+    <col min="16" max="16" width="20.5714285714286" customWidth="1"/>
+    <col min="17" max="17" width="13.4285714285714" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="12.4285714285714" customWidth="1"/>
+    <col min="20" max="20" width="11.8571428571429" customWidth="1"/>
+    <col min="27" max="27" width="17.2857142857143" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1303,10 +1336,13 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>91260</v>
@@ -1338,55 +1374,58 @@
       <c r="K2">
         <v>154593</v>
       </c>
-      <c r="L2">
-        <v>306968</v>
-      </c>
-      <c r="M2">
-        <v>231246</v>
-      </c>
-      <c r="N2">
-        <v>38035</v>
-      </c>
-      <c r="O2">
-        <v>494</v>
-      </c>
-      <c r="P2">
-        <v>20192</v>
-      </c>
-      <c r="Q2">
-        <v>129</v>
+      <c r="L2" s="1">
+        <v>78504</v>
+      </c>
+      <c r="M2" s="1">
+        <v>42554</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5254</v>
+      </c>
+      <c r="O2" s="1">
+        <v>3419</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1148</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1350</v>
       </c>
       <c r="R2">
-        <v>4085</v>
-      </c>
-      <c r="S2">
-        <v>12787</v>
-      </c>
-      <c r="T2">
+        <v>145</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1318</v>
+      </c>
+      <c r="T2" s="1">
+        <v>141313</v>
+      </c>
+      <c r="U2">
         <v>157933</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>77968</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>32218</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>45750</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>79965</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>291149</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>34570</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>5754</v>
@@ -1418,55 +1457,58 @@
       <c r="K3">
         <v>20880</v>
       </c>
-      <c r="L3">
-        <v>46688</v>
-      </c>
-      <c r="M3">
-        <v>44565</v>
-      </c>
-      <c r="N3">
-        <v>700</v>
+      <c r="L3" s="1">
+        <v>4646</v>
+      </c>
+      <c r="M3" s="1">
+        <v>11421</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1104</v>
       </c>
       <c r="O3">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="P3">
-        <v>548</v>
+        <v>63</v>
       </c>
       <c r="Q3">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="R3">
-        <v>216</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>537</v>
-      </c>
-      <c r="T3">
+        <v>176</v>
+      </c>
+      <c r="T3" s="1">
+        <v>18872</v>
+      </c>
+      <c r="U3">
         <v>19545</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>8541</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>3683</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>4858</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>11004</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>41742</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>7047</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>337789</v>
@@ -1498,55 +1540,58 @@
       <c r="K4">
         <v>432231</v>
       </c>
-      <c r="L4">
-        <v>1435068</v>
-      </c>
-      <c r="M4">
-        <v>315533</v>
-      </c>
-      <c r="N4">
-        <v>504814</v>
-      </c>
-      <c r="O4">
-        <v>10116</v>
-      </c>
-      <c r="P4">
-        <v>52989</v>
-      </c>
-      <c r="Q4">
-        <v>1385</v>
-      </c>
-      <c r="R4">
-        <v>494363</v>
-      </c>
-      <c r="S4">
-        <v>55868</v>
-      </c>
-      <c r="T4">
-        <v>582554</v>
+      <c r="L4" s="2">
+        <v>347893</v>
+      </c>
+      <c r="M4" s="2">
+        <v>34089</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3708</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5016</v>
+      </c>
+      <c r="P4" s="3">
+        <v>737</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3455</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1268</v>
+      </c>
+      <c r="T4" s="2">
+        <v>402977</v>
       </c>
       <c r="U4">
         <v>582554</v>
       </c>
       <c r="V4">
+        <v>582554</v>
+      </c>
+      <c r="W4">
         <v>523684</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>58870</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>0</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1400341</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>392172</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>43974</v>
@@ -1578,55 +1623,58 @@
       <c r="K5">
         <v>93418</v>
       </c>
-      <c r="L5">
-        <v>193188</v>
-      </c>
-      <c r="M5">
-        <v>165108</v>
-      </c>
-      <c r="N5">
-        <v>10918</v>
-      </c>
-      <c r="O5">
-        <v>348</v>
-      </c>
-      <c r="P5">
-        <v>8389</v>
-      </c>
-      <c r="Q5">
-        <v>75</v>
-      </c>
-      <c r="R5">
-        <v>2058</v>
-      </c>
-      <c r="S5">
-        <v>6292</v>
-      </c>
-      <c r="T5">
+      <c r="L5" s="2">
+        <v>37106</v>
+      </c>
+      <c r="M5" s="2">
+        <v>37337</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3606</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1631</v>
+      </c>
+      <c r="P5" s="3">
+        <v>475</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1038</v>
+      </c>
+      <c r="R5" s="3">
+        <v>67</v>
+      </c>
+      <c r="S5" s="3">
+        <v>864</v>
+      </c>
+      <c r="T5" s="2">
+        <v>87177</v>
+      </c>
+      <c r="U5">
         <v>84232</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>41175</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>12572</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>28603</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>43057</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>183481</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>31945</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>11310</v>
@@ -1658,55 +1706,58 @@
       <c r="K6">
         <v>35009</v>
       </c>
-      <c r="L6">
-        <v>77121</v>
-      </c>
-      <c r="M6">
-        <v>70859</v>
-      </c>
-      <c r="N6">
-        <v>1116</v>
-      </c>
-      <c r="O6">
-        <v>2485</v>
-      </c>
-      <c r="P6">
-        <v>610</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>470</v>
-      </c>
-      <c r="S6">
-        <v>1581</v>
-      </c>
-      <c r="T6">
+      <c r="L6" s="2">
+        <v>9077</v>
+      </c>
+      <c r="M6" s="2">
+        <v>17485</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2207</v>
+      </c>
+      <c r="O6" s="3">
+        <v>274</v>
+      </c>
+      <c r="P6" s="3">
+        <v>146</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>320</v>
+      </c>
+      <c r="R6" s="3">
+        <v>72</v>
+      </c>
+      <c r="S6" s="3">
+        <v>205</v>
+      </c>
+      <c r="T6" s="2">
+        <v>31553</v>
+      </c>
+      <c r="U6">
         <v>32891</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>16092</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>6504</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>9588</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>16799</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>74679</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>12324</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>15410</v>
@@ -1738,55 +1789,58 @@
       <c r="K7">
         <v>36746</v>
       </c>
-      <c r="L7">
-        <v>77425</v>
-      </c>
-      <c r="M7">
-        <v>71056</v>
-      </c>
-      <c r="N7">
-        <v>3303</v>
-      </c>
-      <c r="O7">
-        <v>106</v>
-      </c>
-      <c r="P7">
-        <v>441</v>
-      </c>
-      <c r="Q7">
-        <v>5</v>
-      </c>
-      <c r="R7">
-        <v>604</v>
-      </c>
-      <c r="S7">
-        <v>1910</v>
-      </c>
-      <c r="T7">
+      <c r="L7" s="2">
+        <v>12779</v>
+      </c>
+      <c r="M7" s="2">
+        <v>15316</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2068</v>
+      </c>
+      <c r="O7" s="3">
+        <v>541</v>
+      </c>
+      <c r="P7" s="3">
+        <v>202</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>259</v>
+      </c>
+      <c r="R7" s="3">
+        <v>16</v>
+      </c>
+      <c r="S7" s="3">
+        <v>307</v>
+      </c>
+      <c r="T7" s="2">
+        <v>33447</v>
+      </c>
+      <c r="U7">
         <v>35549</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>16284</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>7381</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>8903</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>19265</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>72846</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>8812</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>21933</v>
@@ -1818,55 +1872,58 @@
       <c r="K8">
         <v>59746</v>
       </c>
-      <c r="L8">
-        <v>128496</v>
-      </c>
-      <c r="M8">
-        <v>118515</v>
-      </c>
-      <c r="N8">
-        <v>3338</v>
-      </c>
-      <c r="O8">
-        <v>410</v>
-      </c>
-      <c r="P8">
-        <v>723</v>
-      </c>
-      <c r="Q8">
-        <v>82</v>
-      </c>
-      <c r="R8">
-        <v>2843</v>
-      </c>
-      <c r="S8">
-        <v>2585</v>
-      </c>
-      <c r="T8">
+      <c r="L8" s="2">
+        <v>18112</v>
+      </c>
+      <c r="M8" s="2">
+        <v>27516</v>
+      </c>
+      <c r="N8" s="2">
+        <v>4078</v>
+      </c>
+      <c r="O8" s="3">
+        <v>704</v>
+      </c>
+      <c r="P8" s="3">
+        <v>275</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>576</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>485</v>
+      </c>
+      <c r="T8" s="2">
+        <v>54810</v>
+      </c>
+      <c r="U8">
         <v>54703</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>31842</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>11932</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>19910</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>22861</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>123076</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>22398</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>15969</v>
@@ -1898,55 +1955,58 @@
       <c r="K9">
         <v>39698</v>
       </c>
-      <c r="L9">
-        <v>84895</v>
-      </c>
-      <c r="M9">
-        <v>74766</v>
-      </c>
-      <c r="N9">
-        <v>5324</v>
-      </c>
-      <c r="O9">
-        <v>250</v>
-      </c>
-      <c r="P9">
-        <v>1135</v>
-      </c>
-      <c r="Q9">
-        <v>12</v>
-      </c>
-      <c r="R9">
-        <v>610</v>
-      </c>
-      <c r="S9">
-        <v>2798</v>
-      </c>
-      <c r="T9">
+      <c r="L9" s="2">
+        <v>13277</v>
+      </c>
+      <c r="M9" s="2">
+        <v>18347</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1750</v>
+      </c>
+      <c r="O9" s="3">
+        <v>326</v>
+      </c>
+      <c r="P9" s="3">
+        <v>154</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>395</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>261</v>
+      </c>
+      <c r="T9" s="2">
+        <v>36514</v>
+      </c>
+      <c r="U9">
         <v>36723</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>25973</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>6430</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>19543</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>10750</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>80273</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>11136</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>7900</v>
@@ -1978,55 +2038,58 @@
       <c r="K10">
         <v>22410</v>
       </c>
-      <c r="L10">
-        <v>47909</v>
-      </c>
-      <c r="M10">
-        <v>46037</v>
-      </c>
-      <c r="N10">
-        <v>467</v>
-      </c>
-      <c r="O10">
-        <v>172</v>
-      </c>
-      <c r="P10">
-        <v>218</v>
-      </c>
-      <c r="Q10">
-        <v>10</v>
-      </c>
-      <c r="R10">
-        <v>202</v>
-      </c>
-      <c r="S10">
-        <v>803</v>
-      </c>
-      <c r="T10">
+      <c r="L10" s="2">
+        <v>6417</v>
+      </c>
+      <c r="M10" s="2">
+        <v>10849</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1072</v>
+      </c>
+      <c r="O10" s="3">
+        <v>258</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>148</v>
+      </c>
+      <c r="R10" s="3">
+        <v>11</v>
+      </c>
+      <c r="S10" s="3">
+        <v>169</v>
+      </c>
+      <c r="T10" s="2">
+        <v>20319</v>
+      </c>
+      <c r="U10">
         <v>21140</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>6515</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>2315</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>4200</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>14625</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>47050</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>6368</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>17316</v>
@@ -2058,55 +2121,58 @@
       <c r="K11">
         <v>35631</v>
       </c>
-      <c r="L11">
-        <v>80583</v>
-      </c>
-      <c r="M11">
-        <v>73237</v>
-      </c>
-      <c r="N11">
-        <v>3447</v>
-      </c>
-      <c r="O11">
-        <v>221</v>
-      </c>
-      <c r="P11">
-        <v>1133</v>
-      </c>
-      <c r="Q11">
-        <v>15</v>
-      </c>
-      <c r="R11">
-        <v>1407</v>
-      </c>
-      <c r="S11">
-        <v>1123</v>
-      </c>
-      <c r="T11">
+      <c r="L11" s="2">
+        <v>14217</v>
+      </c>
+      <c r="M11" s="2">
+        <v>13312</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1137</v>
+      </c>
+      <c r="O11" s="3">
+        <v>634</v>
+      </c>
+      <c r="P11" s="3">
+        <v>208</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2414</v>
+      </c>
+      <c r="R11" s="3">
+        <v>17</v>
+      </c>
+      <c r="S11" s="3">
+        <v>602</v>
+      </c>
+      <c r="T11" s="2">
+        <v>34536</v>
+      </c>
+      <c r="U11">
         <v>34916</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>15316</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>6314</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>9002</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>19600</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>72677</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>10902</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>18179</v>
@@ -2138,55 +2204,58 @@
       <c r="K12">
         <v>35766</v>
       </c>
-      <c r="L12">
-        <v>60371</v>
-      </c>
-      <c r="M12">
-        <v>53725</v>
-      </c>
-      <c r="N12">
-        <v>2741</v>
-      </c>
-      <c r="O12">
-        <v>34</v>
-      </c>
-      <c r="P12">
-        <v>1084</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>1129</v>
-      </c>
-      <c r="S12">
-        <v>1658</v>
-      </c>
-      <c r="T12">
+      <c r="L12" s="2">
+        <v>14146</v>
+      </c>
+      <c r="M12" s="2">
+        <v>11867</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1889</v>
+      </c>
+      <c r="O12" s="3">
+        <v>865</v>
+      </c>
+      <c r="P12" s="3">
+        <v>273</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>230</v>
+      </c>
+      <c r="R12" s="3">
+        <v>20</v>
+      </c>
+      <c r="S12" s="3">
+        <v>238</v>
+      </c>
+      <c r="T12" s="2">
+        <v>31152</v>
+      </c>
+      <c r="U12">
         <v>28927</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>9520</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>2411</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>7109</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>19407</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>58561</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>6777</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>9791</v>
@@ -2218,55 +2287,58 @@
       <c r="K13">
         <v>21876</v>
       </c>
-      <c r="L13">
-        <v>47865</v>
-      </c>
-      <c r="M13">
-        <v>45302</v>
-      </c>
-      <c r="N13">
-        <v>928</v>
-      </c>
-      <c r="O13">
-        <v>107</v>
-      </c>
-      <c r="P13">
-        <v>364</v>
-      </c>
-      <c r="Q13">
-        <v>7</v>
-      </c>
-      <c r="R13">
-        <v>236</v>
-      </c>
-      <c r="S13">
-        <v>921</v>
-      </c>
-      <c r="T13">
+      <c r="L13" s="2">
+        <v>8307</v>
+      </c>
+      <c r="M13" s="2">
+        <v>8930</v>
+      </c>
+      <c r="N13" s="3">
+        <v>970</v>
+      </c>
+      <c r="O13" s="3">
+        <v>309</v>
+      </c>
+      <c r="P13" s="3">
+        <v>155</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>209</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>180</v>
+      </c>
+      <c r="T13" s="2">
+        <v>20453</v>
+      </c>
+      <c r="U13">
         <v>22493</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>13261</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>4885</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>8376</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>9232</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>44338</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>7272</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>8567</v>
@@ -2298,55 +2370,58 @@
       <c r="K14">
         <v>23061</v>
       </c>
-      <c r="L14">
-        <v>44995</v>
-      </c>
-      <c r="M14">
-        <v>42629</v>
-      </c>
-      <c r="N14">
-        <v>802</v>
-      </c>
-      <c r="O14">
-        <v>44</v>
-      </c>
-      <c r="P14">
-        <v>349</v>
-      </c>
-      <c r="Q14">
-        <v>2</v>
-      </c>
-      <c r="R14">
-        <v>337</v>
-      </c>
-      <c r="S14">
-        <v>832</v>
-      </c>
-      <c r="T14">
+      <c r="L14" s="2">
+        <v>6194</v>
+      </c>
+      <c r="M14" s="2">
+        <v>10827</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1115</v>
+      </c>
+      <c r="O14" s="3">
+        <v>333</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>131</v>
+      </c>
+      <c r="R14" s="3">
+        <v>9</v>
+      </c>
+      <c r="S14" s="3">
+        <v>143</v>
+      </c>
+      <c r="T14" s="2">
+        <v>19932</v>
+      </c>
+      <c r="U14">
         <v>19552</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>6317</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>2639</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>3678</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>13235</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>42647</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>7071</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>75907</v>
@@ -2378,55 +2453,58 @@
       <c r="K15">
         <v>151797</v>
       </c>
-      <c r="L15">
-        <v>293754</v>
-      </c>
-      <c r="M15">
-        <v>229746</v>
-      </c>
-      <c r="N15">
-        <v>30970</v>
-      </c>
-      <c r="O15">
-        <v>934</v>
-      </c>
-      <c r="P15">
-        <v>10413</v>
-      </c>
-      <c r="Q15">
-        <v>155</v>
-      </c>
-      <c r="R15">
-        <v>11222</v>
-      </c>
-      <c r="S15">
-        <v>10314</v>
-      </c>
-      <c r="T15">
+      <c r="L15" s="2">
+        <v>58910</v>
+      </c>
+      <c r="M15" s="2">
+        <v>54366</v>
+      </c>
+      <c r="N15" s="2">
+        <v>7431</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2602</v>
+      </c>
+      <c r="P15" s="3">
+        <v>749</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1084</v>
+      </c>
+      <c r="R15" s="3">
+        <v>216</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1002</v>
+      </c>
+      <c r="T15" s="2">
+        <v>132234</v>
+      </c>
+      <c r="U15">
         <v>142352</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>51845</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>9748</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>42097</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>90507</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>277234</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>25065</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16">
         <v>252478</v>
@@ -2458,55 +2536,58 @@
       <c r="K16">
         <v>476787</v>
       </c>
-      <c r="L16">
-        <v>919355</v>
-      </c>
-      <c r="M16">
-        <v>715409</v>
-      </c>
-      <c r="N16">
-        <v>123742</v>
-      </c>
-      <c r="O16">
-        <v>4634</v>
-      </c>
-      <c r="P16">
-        <v>32793</v>
-      </c>
-      <c r="Q16">
-        <v>289</v>
-      </c>
-      <c r="R16">
-        <v>20349</v>
-      </c>
-      <c r="S16">
-        <v>22139</v>
-      </c>
-      <c r="T16">
+      <c r="L16" s="2">
+        <v>205773</v>
+      </c>
+      <c r="M16" s="2">
+        <v>159742</v>
+      </c>
+      <c r="N16" s="2">
+        <v>28561</v>
+      </c>
+      <c r="O16" s="2">
+        <v>7302</v>
+      </c>
+      <c r="P16" s="2">
+        <v>2381</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>7912</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>431537</v>
+      </c>
+      <c r="U16">
         <v>441864</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>289557</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>92352</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>197205</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>152307</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>893029</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>126806</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>9327</v>
@@ -2538,55 +2619,58 @@
       <c r="K17">
         <v>19458</v>
       </c>
-      <c r="L17">
-        <v>37459</v>
-      </c>
-      <c r="M17">
-        <v>34788</v>
-      </c>
-      <c r="N17">
-        <v>1194</v>
-      </c>
-      <c r="O17">
-        <v>93</v>
-      </c>
-      <c r="P17">
-        <v>103</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
-      </c>
-      <c r="R17">
-        <v>506</v>
-      </c>
-      <c r="S17">
-        <v>768</v>
-      </c>
-      <c r="T17">
+      <c r="L17" s="2">
+        <v>7341</v>
+      </c>
+      <c r="M17" s="2">
+        <v>7347</v>
+      </c>
+      <c r="N17" s="3">
+        <v>611</v>
+      </c>
+      <c r="O17" s="3">
+        <v>282</v>
+      </c>
+      <c r="P17" s="3">
+        <v>139</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>244</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>297</v>
+      </c>
+      <c r="T17" s="2">
+        <v>17462</v>
+      </c>
+      <c r="U17">
         <v>16919</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>7059</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>3117</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>3942</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>9860</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>34792</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>3435</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>8767</v>
@@ -2618,55 +2702,58 @@
       <c r="K18">
         <v>19416</v>
       </c>
-      <c r="L18">
-        <v>50477</v>
-      </c>
-      <c r="M18">
-        <v>41726</v>
-      </c>
-      <c r="N18">
-        <v>2863</v>
-      </c>
-      <c r="O18">
-        <v>3609</v>
-      </c>
-      <c r="P18">
-        <v>280</v>
-      </c>
-      <c r="Q18">
-        <v>111</v>
-      </c>
-      <c r="R18">
-        <v>1057</v>
-      </c>
-      <c r="S18">
-        <v>831</v>
-      </c>
-      <c r="T18">
+      <c r="L18" s="2">
+        <v>6994</v>
+      </c>
+      <c r="M18" s="2">
+        <v>7670</v>
+      </c>
+      <c r="N18" s="3">
+        <v>551</v>
+      </c>
+      <c r="O18" s="3">
+        <v>225</v>
+      </c>
+      <c r="P18" s="3">
+        <v>78</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>227</v>
+      </c>
+      <c r="R18" s="3">
+        <v>10</v>
+      </c>
+      <c r="S18" s="3">
+        <v>312</v>
+      </c>
+      <c r="T18" s="2">
+        <v>17189</v>
+      </c>
+      <c r="U18">
         <v>18859</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>7320</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>3517</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>3803</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>11539</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>44890</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>7981</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>7551</v>
@@ -2698,55 +2785,58 @@
       <c r="K19">
         <v>24071</v>
       </c>
-      <c r="L19">
-        <v>53646</v>
-      </c>
-      <c r="M19">
-        <v>50640</v>
-      </c>
-      <c r="N19">
-        <v>1119</v>
-      </c>
-      <c r="O19">
-        <v>209</v>
-      </c>
-      <c r="P19">
-        <v>417</v>
-      </c>
-      <c r="Q19">
-        <v>7</v>
-      </c>
-      <c r="R19">
-        <v>444</v>
-      </c>
-      <c r="S19">
-        <v>810</v>
-      </c>
-      <c r="T19">
+      <c r="L19" s="2">
+        <v>6215</v>
+      </c>
+      <c r="M19" s="2">
+        <v>12331</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1131</v>
+      </c>
+      <c r="O19" s="3">
+        <v>177</v>
+      </c>
+      <c r="P19" s="3">
+        <v>104</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>238</v>
+      </c>
+      <c r="R19" s="3">
+        <v>12</v>
+      </c>
+      <c r="S19" s="3">
+        <v>145</v>
+      </c>
+      <c r="T19" s="2">
+        <v>21464</v>
+      </c>
+      <c r="U19">
         <v>24040</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>11941</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>3914</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>8027</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>12099</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>52435</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>7814</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>9107</v>
@@ -2778,55 +2868,58 @@
       <c r="K20">
         <v>29418</v>
       </c>
-      <c r="L20">
-        <v>57808</v>
-      </c>
-      <c r="M20">
-        <v>53142</v>
-      </c>
-      <c r="N20">
-        <v>1214</v>
-      </c>
-      <c r="O20">
-        <v>490</v>
-      </c>
-      <c r="P20">
-        <v>455</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>971</v>
-      </c>
-      <c r="S20">
-        <v>1536</v>
-      </c>
-      <c r="T20">
+      <c r="L20" s="2">
+        <v>7276</v>
+      </c>
+      <c r="M20" s="2">
+        <v>14646</v>
+      </c>
+      <c r="N20" s="2">
+        <v>2269</v>
+      </c>
+      <c r="O20" s="3">
+        <v>258</v>
+      </c>
+      <c r="P20" s="3">
+        <v>116</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>240</v>
+      </c>
+      <c r="R20" s="3">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
+        <v>177</v>
+      </c>
+      <c r="T20" s="2">
+        <v>26676</v>
+      </c>
+      <c r="U20">
         <v>28903</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>11782</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>3790</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>7992</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>17121</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>56919</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>6189</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>9363</v>
@@ -2858,55 +2951,58 @@
       <c r="K21">
         <v>25317</v>
       </c>
-      <c r="L21">
-        <v>47424</v>
-      </c>
-      <c r="M21">
-        <v>42486</v>
-      </c>
-      <c r="N21">
-        <v>2758</v>
-      </c>
-      <c r="O21">
-        <v>304</v>
-      </c>
-      <c r="P21">
-        <v>497</v>
-      </c>
-      <c r="Q21">
-        <v>3</v>
-      </c>
-      <c r="R21">
-        <v>481</v>
-      </c>
-      <c r="S21">
-        <v>895</v>
-      </c>
-      <c r="T21">
+      <c r="L21" s="2">
+        <v>6914</v>
+      </c>
+      <c r="M21" s="2">
+        <v>11620</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1453</v>
+      </c>
+      <c r="O21" s="3">
+        <v>365</v>
+      </c>
+      <c r="P21" s="3">
+        <v>126</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>269</v>
+      </c>
+      <c r="R21" s="3">
+        <v>6</v>
+      </c>
+      <c r="S21" s="3">
+        <v>391</v>
+      </c>
+      <c r="T21" s="2">
+        <v>22325</v>
+      </c>
+      <c r="U21">
         <v>19999</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>5819</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>1464</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>4355</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>14180</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>44075</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>6167</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>1131</v>
@@ -2938,55 +3034,58 @@
       <c r="K22">
         <v>3488</v>
       </c>
-      <c r="L22">
-        <v>4515</v>
-      </c>
-      <c r="M22">
-        <v>4394</v>
-      </c>
-      <c r="N22">
-        <v>36</v>
-      </c>
-      <c r="O22">
-        <v>5</v>
-      </c>
-      <c r="P22">
-        <v>3</v>
-      </c>
-      <c r="Q22">
-        <v>2</v>
-      </c>
-      <c r="R22">
-        <v>13</v>
-      </c>
-      <c r="S22">
-        <v>62</v>
-      </c>
-      <c r="T22">
+      <c r="L22" s="3">
+        <v>906</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1897</v>
+      </c>
+      <c r="N22" s="3">
+        <v>167</v>
+      </c>
+      <c r="O22" s="3">
+        <v>24</v>
+      </c>
+      <c r="P22" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>52</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>49</v>
+      </c>
+      <c r="T22" s="2">
+        <v>3277</v>
+      </c>
+      <c r="U22">
         <v>1767</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>529</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>306</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>223</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>1238</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>4479</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>443</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <v>9462</v>
@@ -3018,55 +3117,58 @@
       <c r="K23">
         <v>29555</v>
       </c>
-      <c r="L23">
-        <v>62057</v>
-      </c>
-      <c r="M23">
-        <v>59365</v>
-      </c>
-      <c r="N23">
-        <v>836</v>
-      </c>
-      <c r="O23">
-        <v>135</v>
-      </c>
-      <c r="P23">
-        <v>373</v>
-      </c>
-      <c r="Q23">
-        <v>98</v>
-      </c>
-      <c r="R23">
-        <v>272</v>
-      </c>
-      <c r="S23">
-        <v>978</v>
-      </c>
-      <c r="T23">
+      <c r="L23" s="2">
+        <v>7708</v>
+      </c>
+      <c r="M23" s="2">
+        <v>15110</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1589</v>
+      </c>
+      <c r="O23" s="3">
+        <v>262</v>
+      </c>
+      <c r="P23" s="3">
+        <v>113</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>227</v>
+      </c>
+      <c r="R23" s="3">
+        <v>215</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>26697</v>
+      </c>
+      <c r="U23">
         <v>28042</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>12718</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>3516</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>9202</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>15324</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>60914</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>8307</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>16679</v>
@@ -3098,55 +3200,58 @@
       <c r="K24">
         <v>44122</v>
       </c>
-      <c r="L24">
-        <v>112842</v>
-      </c>
-      <c r="M24">
-        <v>97448</v>
-      </c>
-      <c r="N24">
-        <v>6932</v>
-      </c>
-      <c r="O24">
-        <v>564</v>
-      </c>
-      <c r="P24">
-        <v>1983</v>
-      </c>
-      <c r="Q24">
-        <v>249</v>
-      </c>
-      <c r="R24">
-        <v>1325</v>
-      </c>
-      <c r="S24">
-        <v>4341</v>
-      </c>
-      <c r="T24">
+      <c r="L24" s="2">
+        <v>13150</v>
+      </c>
+      <c r="M24" s="2">
+        <v>19894</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1869</v>
+      </c>
+      <c r="O24" s="3">
+        <v>466</v>
+      </c>
+      <c r="P24" s="3">
+        <v>193</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>327</v>
+      </c>
+      <c r="R24" s="3">
+        <v>50</v>
+      </c>
+      <c r="S24" s="3">
+        <v>297</v>
+      </c>
+      <c r="T24" s="2">
+        <v>38613</v>
+      </c>
+      <c r="U24">
         <v>51958</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>32251</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>15308</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>16943</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>19707</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>106273</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>14897</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25">
         <v>608794</v>
@@ -3178,55 +3283,58 @@
       <c r="K25">
         <v>919936</v>
       </c>
-      <c r="L25">
-        <v>2589974</v>
-      </c>
-      <c r="M25">
-        <v>1132426</v>
-      </c>
-      <c r="N25">
-        <v>833683</v>
-      </c>
-      <c r="O25">
-        <v>8604</v>
-      </c>
-      <c r="P25">
-        <v>307081</v>
-      </c>
-      <c r="Q25">
-        <v>1232</v>
-      </c>
-      <c r="R25">
-        <v>225162</v>
-      </c>
-      <c r="S25">
-        <v>81786</v>
-      </c>
-      <c r="T25">
-        <v>1197935</v>
+      <c r="L25" s="2">
+        <v>611439</v>
+      </c>
+      <c r="M25" s="2">
+        <v>129368</v>
+      </c>
+      <c r="N25" s="2">
+        <v>11676</v>
+      </c>
+      <c r="O25" s="2">
+        <v>26578</v>
+      </c>
+      <c r="P25" s="2">
+        <v>2536</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>4900</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <v>4516</v>
+      </c>
+      <c r="T25" s="2">
+        <v>810505</v>
       </c>
       <c r="U25">
         <v>1197935</v>
       </c>
       <c r="V25">
+        <v>1197935</v>
+      </c>
+      <c r="W25">
         <v>1152049</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>45886</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>0</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>2564539</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>511631</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26">
         <v>3677</v>
@@ -3258,55 +3366,58 @@
       <c r="K26">
         <v>13029</v>
       </c>
-      <c r="L26">
-        <v>26572</v>
-      </c>
-      <c r="M26">
-        <v>25725</v>
-      </c>
-      <c r="N26">
-        <v>185</v>
-      </c>
-      <c r="O26">
-        <v>76</v>
-      </c>
-      <c r="P26">
-        <v>141</v>
-      </c>
-      <c r="Q26">
-        <v>24</v>
-      </c>
-      <c r="R26">
-        <v>171</v>
-      </c>
-      <c r="S26">
-        <v>250</v>
-      </c>
-      <c r="T26">
+      <c r="L26" s="2">
+        <v>3009</v>
+      </c>
+      <c r="M26" s="2">
+        <v>6698</v>
+      </c>
+      <c r="N26" s="3">
+        <v>702</v>
+      </c>
+      <c r="O26" s="3">
+        <v>96</v>
+      </c>
+      <c r="P26" s="3">
+        <v>41</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>125</v>
+      </c>
+      <c r="R26" s="3">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
+        <v>111</v>
+      </c>
+      <c r="T26" s="2">
+        <v>11455</v>
+      </c>
+      <c r="U26">
         <v>11754</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>3128</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1045</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>2083</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>8626</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>26270</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>3540</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27">
         <v>11704</v>
@@ -3338,55 +3449,58 @@
       <c r="K27">
         <v>31642</v>
       </c>
-      <c r="L27">
-        <v>63591</v>
-      </c>
-      <c r="M27">
-        <v>58916</v>
-      </c>
-      <c r="N27">
-        <v>1813</v>
-      </c>
-      <c r="O27">
-        <v>146</v>
-      </c>
-      <c r="P27">
-        <v>830</v>
-      </c>
-      <c r="Q27">
-        <v>30</v>
-      </c>
-      <c r="R27">
-        <v>791</v>
-      </c>
-      <c r="S27">
-        <v>1065</v>
-      </c>
-      <c r="T27">
+      <c r="L27" s="2">
+        <v>10140</v>
+      </c>
+      <c r="M27" s="2">
+        <v>15168</v>
+      </c>
+      <c r="N27" s="2">
+        <v>2122</v>
+      </c>
+      <c r="O27" s="3">
+        <v>370</v>
+      </c>
+      <c r="P27" s="3">
+        <v>187</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>253</v>
+      </c>
+      <c r="R27" s="3">
+        <v>29</v>
+      </c>
+      <c r="S27" s="3">
+        <v>197</v>
+      </c>
+      <c r="T27" s="2">
+        <v>30313</v>
+      </c>
+      <c r="U27">
         <v>28667</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>15410</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>3949</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>11461</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>13257</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>57472</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>7572</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>14020</v>
@@ -3418,55 +3532,58 @@
       <c r="K28">
         <v>34257</v>
       </c>
-      <c r="L28">
-        <v>71205</v>
-      </c>
-      <c r="M28">
-        <v>67360</v>
-      </c>
-      <c r="N28">
-        <v>1268</v>
-      </c>
-      <c r="O28">
-        <v>339</v>
-      </c>
-      <c r="P28">
-        <v>638</v>
-      </c>
-      <c r="Q28">
-        <v>79</v>
-      </c>
-      <c r="R28">
-        <v>309</v>
-      </c>
-      <c r="S28">
-        <v>1212</v>
-      </c>
-      <c r="T28">
+      <c r="L28" s="2">
+        <v>10988</v>
+      </c>
+      <c r="M28" s="2">
+        <v>14144</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1792</v>
+      </c>
+      <c r="O28" s="3">
+        <v>482</v>
+      </c>
+      <c r="P28" s="3">
+        <v>197</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>288</v>
+      </c>
+      <c r="R28" s="3">
+        <v>1</v>
+      </c>
+      <c r="S28" s="3">
+        <v>263</v>
+      </c>
+      <c r="T28" s="2">
+        <v>30353</v>
+      </c>
+      <c r="U28">
         <v>33349</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>13974</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>4089</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>9885</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>19375</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>66057</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>6459</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29">
         <v>213606</v>
@@ -3498,55 +3615,58 @@
       <c r="K29">
         <v>383221</v>
       </c>
-      <c r="L29">
-        <v>743341</v>
-      </c>
-      <c r="M29">
-        <v>564617</v>
-      </c>
-      <c r="N29">
-        <v>113808</v>
-      </c>
-      <c r="O29">
-        <v>3040</v>
-      </c>
-      <c r="P29">
-        <v>27115</v>
-      </c>
-      <c r="Q29">
-        <v>290</v>
-      </c>
-      <c r="R29">
-        <v>12865</v>
-      </c>
-      <c r="S29">
-        <v>21606</v>
-      </c>
-      <c r="T29">
+      <c r="L29" s="2">
+        <v>179142</v>
+      </c>
+      <c r="M29" s="2">
+        <v>116476</v>
+      </c>
+      <c r="N29" s="2">
+        <v>20106</v>
+      </c>
+      <c r="O29" s="2">
+        <v>6588</v>
+      </c>
+      <c r="P29" s="2">
+        <v>2862</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>2984</v>
+      </c>
+      <c r="R29" s="3">
+        <v>194</v>
+      </c>
+      <c r="S29" s="2">
+        <v>2902</v>
+      </c>
+      <c r="T29" s="2">
+        <v>350968</v>
+      </c>
+      <c r="U29">
         <v>358706</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>175705</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>60935</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>114770</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>183001</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>718498</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>103406</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>7636</v>
@@ -3578,55 +3698,58 @@
       <c r="K30">
         <v>21242</v>
       </c>
-      <c r="L30">
-        <v>49302</v>
-      </c>
-      <c r="M30">
-        <v>42970</v>
-      </c>
-      <c r="N30">
-        <v>1091</v>
-      </c>
-      <c r="O30">
-        <v>73</v>
-      </c>
-      <c r="P30">
-        <v>362</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>3419</v>
-      </c>
-      <c r="S30">
-        <v>1387</v>
-      </c>
-      <c r="T30">
+      <c r="L30" s="2">
+        <v>6264</v>
+      </c>
+      <c r="M30" s="2">
+        <v>9894</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1407</v>
+      </c>
+      <c r="O30" s="3">
+        <v>230</v>
+      </c>
+      <c r="P30" s="3">
+        <v>101</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>203</v>
+      </c>
+      <c r="R30" s="3">
+        <v>17</v>
+      </c>
+      <c r="S30" s="3">
+        <v>143</v>
+      </c>
+      <c r="T30" s="2">
+        <v>19274</v>
+      </c>
+      <c r="U30">
         <v>21234</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>12100</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>3825</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>8275</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>9134</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>48265</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>9544</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31">
         <v>380907</v>
@@ -3658,55 +3781,58 @@
       <c r="K31">
         <v>738025</v>
       </c>
-      <c r="L31">
-        <v>1356509</v>
-      </c>
-      <c r="M31">
-        <v>922873</v>
-      </c>
-      <c r="N31">
-        <v>158857</v>
-      </c>
-      <c r="O31">
-        <v>3912</v>
-      </c>
-      <c r="P31">
-        <v>130971</v>
-      </c>
-      <c r="Q31">
-        <v>402</v>
-      </c>
-      <c r="R31">
-        <v>98388</v>
-      </c>
-      <c r="S31">
-        <v>41106</v>
-      </c>
-      <c r="T31">
+      <c r="L31" s="2">
+        <v>324212</v>
+      </c>
+      <c r="M31" s="2">
+        <v>272873</v>
+      </c>
+      <c r="N31" s="2">
+        <v>19152</v>
+      </c>
+      <c r="O31" s="2">
+        <v>5671</v>
+      </c>
+      <c r="P31" s="2">
+        <v>2271</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>5865</v>
+      </c>
+      <c r="R31" s="3">
+        <v>689</v>
+      </c>
+      <c r="S31" s="2">
+        <v>4147</v>
+      </c>
+      <c r="T31" s="2">
+        <v>653676</v>
+      </c>
+      <c r="U31">
         <v>675702</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>675344</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>80276</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>595068</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>358</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1336958</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>74291</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B32">
         <v>540748</v>
@@ -3738,55 +3864,58 @@
       <c r="K32">
         <v>701046</v>
       </c>
-      <c r="L32">
-        <v>1631993</v>
-      </c>
-      <c r="M32">
-        <v>922033</v>
-      </c>
-      <c r="N32">
-        <v>240993</v>
-      </c>
-      <c r="O32">
-        <v>6178</v>
-      </c>
-      <c r="P32">
-        <v>198833</v>
-      </c>
-      <c r="Q32">
-        <v>888</v>
-      </c>
-      <c r="R32">
-        <v>188400</v>
-      </c>
-      <c r="S32">
-        <v>74668</v>
-      </c>
-      <c r="T32">
-        <v>887191</v>
+      <c r="L32" s="2">
+        <v>557859</v>
+      </c>
+      <c r="M32" s="2">
+        <v>60638</v>
+      </c>
+      <c r="N32" s="2">
+        <v>4292</v>
+      </c>
+      <c r="O32" s="2">
+        <v>18396</v>
+      </c>
+      <c r="P32" s="2">
+        <v>2758</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>4172</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2">
+        <v>5071</v>
+      </c>
+      <c r="T32" s="2">
+        <v>673112</v>
       </c>
       <c r="U32">
         <v>887191</v>
       </c>
       <c r="V32">
+        <v>887191</v>
+      </c>
+      <c r="W32">
         <v>833622</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>53569</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>0</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>1584693</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>250913</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B33">
         <v>43717</v>
@@ -3818,55 +3947,58 @@
       <c r="K33">
         <v>104823</v>
       </c>
-      <c r="L33">
-        <v>210820</v>
-      </c>
-      <c r="M33">
-        <v>183860</v>
-      </c>
-      <c r="N33">
-        <v>14806</v>
-      </c>
-      <c r="O33">
-        <v>2074</v>
-      </c>
-      <c r="P33">
-        <v>2337</v>
-      </c>
-      <c r="Q33">
-        <v>62</v>
-      </c>
-      <c r="R33">
-        <v>1683</v>
-      </c>
-      <c r="S33">
-        <v>5998</v>
-      </c>
-      <c r="T33">
+      <c r="L33" s="2">
+        <v>33927</v>
+      </c>
+      <c r="M33" s="2">
+        <v>44289</v>
+      </c>
+      <c r="N33" s="2">
+        <v>7672</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1228</v>
+      </c>
+      <c r="P33" s="3">
+        <v>404</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>1891</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>601</v>
+      </c>
+      <c r="T33" s="2">
+        <v>94293</v>
+      </c>
+      <c r="U33">
         <v>98856</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>55956</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>17315</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>38641</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>42900</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>207027</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>27857</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34">
         <v>39271</v>
@@ -3898,55 +4030,58 @@
       <c r="K34">
         <v>101665</v>
       </c>
-      <c r="L34">
-        <v>229959</v>
-      </c>
-      <c r="M34">
-        <v>196219</v>
-      </c>
-      <c r="N34">
-        <v>13771</v>
-      </c>
-      <c r="O34">
-        <v>542</v>
-      </c>
-      <c r="P34">
-        <v>9304</v>
-      </c>
-      <c r="Q34">
-        <v>70</v>
-      </c>
-      <c r="R34">
-        <v>3263</v>
-      </c>
-      <c r="S34">
-        <v>6790</v>
-      </c>
-      <c r="T34">
+      <c r="L34" s="2">
+        <v>32217</v>
+      </c>
+      <c r="M34" s="2">
+        <v>46282</v>
+      </c>
+      <c r="N34" s="2">
+        <v>5155</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1070</v>
+      </c>
+      <c r="P34" s="3">
+        <v>456</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>864</v>
+      </c>
+      <c r="R34" s="3">
+        <v>39</v>
+      </c>
+      <c r="S34" s="3">
+        <v>651</v>
+      </c>
+      <c r="T34" s="2">
+        <v>91912</v>
+      </c>
+      <c r="U34">
         <v>100151</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>53204</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>21645</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>31559</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>46947</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>217905</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>33715</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35">
         <v>132630</v>
@@ -3978,55 +4113,58 @@
       <c r="K35">
         <v>235686</v>
       </c>
-      <c r="L35">
-        <v>462872</v>
-      </c>
-      <c r="M35">
-        <v>368328</v>
-      </c>
-      <c r="N35">
-        <v>52912</v>
-      </c>
-      <c r="O35">
-        <v>2568</v>
-      </c>
-      <c r="P35">
-        <v>17041</v>
-      </c>
-      <c r="Q35">
-        <v>162</v>
-      </c>
-      <c r="R35">
-        <v>4990</v>
-      </c>
-      <c r="S35">
-        <v>16871</v>
-      </c>
-      <c r="T35">
+      <c r="L35" s="2">
+        <v>107049</v>
+      </c>
+      <c r="M35" s="2">
+        <v>73700</v>
+      </c>
+      <c r="N35" s="2">
+        <v>9949</v>
+      </c>
+      <c r="O35" s="2">
+        <v>3781</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1507</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>4424</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>212864</v>
+      </c>
+      <c r="U35">
         <v>218911</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>103139</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>40176</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>62963</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>115772</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>443667</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>62610</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36">
         <v>27646</v>
@@ -4058,55 +4196,58 @@
       <c r="K36">
         <v>60057</v>
       </c>
-      <c r="L36">
-        <v>109511</v>
-      </c>
-      <c r="M36">
-        <v>101371</v>
-      </c>
-      <c r="N36">
-        <v>2769</v>
-      </c>
-      <c r="O36">
-        <v>388</v>
-      </c>
-      <c r="P36">
-        <v>1501</v>
-      </c>
-      <c r="Q36">
-        <v>36</v>
-      </c>
-      <c r="R36">
-        <v>1582</v>
-      </c>
-      <c r="S36">
-        <v>1864</v>
-      </c>
-      <c r="T36">
+      <c r="L36" s="2">
+        <v>21062</v>
+      </c>
+      <c r="M36" s="2">
+        <v>22788</v>
+      </c>
+      <c r="N36" s="2">
+        <v>3241</v>
+      </c>
+      <c r="O36" s="3">
+        <v>799</v>
+      </c>
+      <c r="P36" s="3">
+        <v>372</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>415</v>
+      </c>
+      <c r="R36" s="3">
+        <v>18</v>
+      </c>
+      <c r="S36" s="3">
+        <v>429</v>
+      </c>
+      <c r="T36" s="2">
+        <v>52691</v>
+      </c>
+      <c r="U36">
         <v>54024</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>18642</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>5355</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>13287</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>35382</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>106104</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>9193</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37">
         <v>80504</v>
@@ -4138,55 +4279,58 @@
       <c r="K37">
         <v>173208</v>
       </c>
-      <c r="L37">
-        <v>380085</v>
-      </c>
-      <c r="M37">
-        <v>281683</v>
-      </c>
-      <c r="N37">
-        <v>41779</v>
-      </c>
-      <c r="O37">
-        <v>1482</v>
-      </c>
-      <c r="P37">
-        <v>10280</v>
-      </c>
-      <c r="Q37">
-        <v>298</v>
-      </c>
-      <c r="R37">
-        <v>31086</v>
-      </c>
-      <c r="S37">
-        <v>13477</v>
-      </c>
-      <c r="T37">
+      <c r="L37" s="2">
+        <v>65532</v>
+      </c>
+      <c r="M37" s="2">
+        <v>68509</v>
+      </c>
+      <c r="N37" s="2">
+        <v>8136</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1997</v>
+      </c>
+      <c r="P37" s="3">
+        <v>749</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>4521</v>
+      </c>
+      <c r="R37" s="3">
+        <v>124</v>
+      </c>
+      <c r="S37" s="3">
+        <v>894</v>
+      </c>
+      <c r="T37" s="2">
+        <v>156666</v>
+      </c>
+      <c r="U37">
         <v>176767</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>105295</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>22358</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>82937</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>71472</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>370342</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>43142</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38">
         <v>5326</v>
@@ -4218,55 +4362,58 @@
       <c r="K38">
         <v>18307</v>
       </c>
-      <c r="L38">
-        <v>40904</v>
-      </c>
-      <c r="M38">
-        <v>36345</v>
-      </c>
-      <c r="N38">
-        <v>2383</v>
-      </c>
-      <c r="O38">
-        <v>136</v>
-      </c>
-      <c r="P38">
-        <v>250</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>797</v>
-      </c>
-      <c r="S38">
-        <v>993</v>
-      </c>
-      <c r="T38">
+      <c r="L38" s="2">
+        <v>4239</v>
+      </c>
+      <c r="M38" s="2">
+        <v>9700</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1236</v>
+      </c>
+      <c r="O38" s="3">
+        <v>150</v>
+      </c>
+      <c r="P38" s="3">
+        <v>81</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>182</v>
+      </c>
+      <c r="R38" s="3">
+        <v>7</v>
+      </c>
+      <c r="S38" s="3">
+        <v>79</v>
+      </c>
+      <c r="T38" s="2">
+        <v>16569</v>
+      </c>
+      <c r="U38">
         <v>17502</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>6083</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>1990</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>4093</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>11419</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>38089</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>5226</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B39">
         <v>20015</v>
@@ -4298,55 +4445,58 @@
       <c r="K39">
         <v>54830</v>
       </c>
-      <c r="L39">
-        <v>118339</v>
-      </c>
-      <c r="M39">
-        <v>113114</v>
-      </c>
-      <c r="N39">
-        <v>1352</v>
-      </c>
-      <c r="O39">
-        <v>178</v>
-      </c>
-      <c r="P39">
-        <v>884</v>
-      </c>
-      <c r="Q39">
-        <v>32</v>
-      </c>
-      <c r="R39">
-        <v>601</v>
-      </c>
-      <c r="S39">
-        <v>2178</v>
-      </c>
-      <c r="T39">
+      <c r="L39" s="2">
+        <v>16186</v>
+      </c>
+      <c r="M39" s="2">
+        <v>24794</v>
+      </c>
+      <c r="N39" s="2">
+        <v>2894</v>
+      </c>
+      <c r="O39" s="3">
+        <v>663</v>
+      </c>
+      <c r="P39" s="3">
+        <v>246</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>343</v>
+      </c>
+      <c r="R39" s="3">
+        <v>24</v>
+      </c>
+      <c r="S39" s="3">
+        <v>392</v>
+      </c>
+      <c r="T39" s="2">
+        <v>48547</v>
+      </c>
+      <c r="U39">
         <v>53051</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>20474</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>6889</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>13585</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>32577</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>113014</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>19213</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B40">
         <v>12307</v>
@@ -4378,55 +4528,58 @@
       <c r="K40">
         <v>28211</v>
       </c>
-      <c r="L40">
-        <v>59972</v>
-      </c>
-      <c r="M40">
-        <v>56036</v>
-      </c>
-      <c r="N40">
-        <v>1303</v>
-      </c>
-      <c r="O40">
-        <v>92</v>
-      </c>
-      <c r="P40">
-        <v>814</v>
-      </c>
-      <c r="Q40">
-        <v>6</v>
-      </c>
-      <c r="R40">
-        <v>430</v>
-      </c>
-      <c r="S40">
-        <v>1291</v>
-      </c>
-      <c r="T40">
+      <c r="L40" s="2">
+        <v>9809</v>
+      </c>
+      <c r="M40" s="2">
+        <v>12156</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1152</v>
+      </c>
+      <c r="O40" s="3">
+        <v>476</v>
+      </c>
+      <c r="P40" s="3">
+        <v>166</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>221</v>
+      </c>
+      <c r="R40" s="3">
+        <v>48</v>
+      </c>
+      <c r="S40" s="3">
+        <v>253</v>
+      </c>
+      <c r="T40" s="2">
+        <v>25937</v>
+      </c>
+      <c r="U40">
         <v>27257</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>11375</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>5186</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>6189</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>15882</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>54849</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>8154</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B41">
         <v>23233</v>
@@ -4458,55 +4611,58 @@
       <c r="K41">
         <v>55293</v>
       </c>
-      <c r="L41">
-        <v>98787</v>
-      </c>
-      <c r="M41">
-        <v>85846</v>
-      </c>
-      <c r="N41">
-        <v>3030</v>
-      </c>
-      <c r="O41">
-        <v>203</v>
-      </c>
-      <c r="P41">
-        <v>2039</v>
-      </c>
-      <c r="Q41">
-        <v>23</v>
-      </c>
-      <c r="R41">
-        <v>5590</v>
-      </c>
-      <c r="S41">
-        <v>2056</v>
-      </c>
-      <c r="T41">
+      <c r="L41" s="2">
+        <v>18324</v>
+      </c>
+      <c r="M41" s="2">
+        <v>23905</v>
+      </c>
+      <c r="N41" s="2">
+        <v>3119</v>
+      </c>
+      <c r="O41" s="3">
+        <v>806</v>
+      </c>
+      <c r="P41" s="3">
+        <v>236</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>302</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>352</v>
+      </c>
+      <c r="T41" s="2">
+        <v>48865</v>
+      </c>
+      <c r="U41">
         <v>49793</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>16482</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>1742</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>14740</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>33311</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>97312</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>4847</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B42">
         <v>523152</v>
@@ -4538,55 +4694,58 @@
       <c r="K42">
         <v>794096</v>
       </c>
-      <c r="L42">
-        <v>2287388</v>
-      </c>
-      <c r="M42">
-        <v>875191</v>
-      </c>
-      <c r="N42">
-        <v>418429</v>
-      </c>
-      <c r="O42">
-        <v>10326</v>
-      </c>
-      <c r="P42">
-        <v>583459</v>
-      </c>
-      <c r="Q42">
-        <v>1078</v>
-      </c>
-      <c r="R42">
-        <v>316141</v>
-      </c>
-      <c r="S42">
-        <v>82764</v>
-      </c>
-      <c r="T42">
-        <v>1101747</v>
+      <c r="L42" s="2">
+        <v>502411</v>
+      </c>
+      <c r="M42" s="2">
+        <v>137148</v>
+      </c>
+      <c r="N42" s="2">
+        <v>12193</v>
+      </c>
+      <c r="O42" s="2">
+        <v>12666</v>
+      </c>
+      <c r="P42" s="2">
+        <v>2143</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>4816</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2">
+        <v>2880</v>
+      </c>
+      <c r="T42" s="2">
+        <v>691209</v>
       </c>
       <c r="U42">
         <v>1101747</v>
       </c>
       <c r="V42">
+        <v>1101747</v>
+      </c>
+      <c r="W42">
         <v>984736</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>117011</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>0</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>2259939</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>276447</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43">
         <v>37558</v>
@@ -4618,55 +4777,58 @@
       <c r="K43">
         <v>79921</v>
       </c>
-      <c r="L43">
-        <v>159185</v>
-      </c>
-      <c r="M43">
-        <v>137002</v>
-      </c>
-      <c r="N43">
-        <v>10268</v>
-      </c>
-      <c r="O43">
-        <v>228</v>
-      </c>
-      <c r="P43">
-        <v>4282</v>
-      </c>
-      <c r="Q43">
-        <v>13</v>
-      </c>
-      <c r="R43">
-        <v>1675</v>
-      </c>
-      <c r="S43">
-        <v>5717</v>
-      </c>
-      <c r="T43">
+      <c r="L43" s="2">
+        <v>30506</v>
+      </c>
+      <c r="M43" s="2">
+        <v>28591</v>
+      </c>
+      <c r="N43" s="2">
+        <v>5135</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1576</v>
+      </c>
+      <c r="P43" s="3">
+        <v>635</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>558</v>
+      </c>
+      <c r="R43" s="3">
+        <v>15</v>
+      </c>
+      <c r="S43" s="3">
+        <v>651</v>
+      </c>
+      <c r="T43" s="2">
+        <v>72135</v>
+      </c>
+      <c r="U43">
         <v>79756</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>39247</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>9437</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>29810</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>40509</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>153415</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>17963</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44">
         <v>85197</v>
@@ -4698,55 +4860,58 @@
       <c r="K44">
         <v>217774</v>
       </c>
-      <c r="L44">
-        <v>474893</v>
-      </c>
-      <c r="M44">
-        <v>352034</v>
-      </c>
-      <c r="N44">
-        <v>48958</v>
-      </c>
-      <c r="O44">
-        <v>1026</v>
-      </c>
-      <c r="P44">
-        <v>44246</v>
-      </c>
-      <c r="Q44">
-        <v>219</v>
-      </c>
-      <c r="R44">
-        <v>17548</v>
-      </c>
-      <c r="S44">
-        <v>10862</v>
-      </c>
-      <c r="T44">
-        <v>211171</v>
+      <c r="L44" s="2">
+        <v>71348</v>
+      </c>
+      <c r="M44" s="2">
+        <v>92383</v>
+      </c>
+      <c r="N44" s="2">
+        <v>9054</v>
+      </c>
+      <c r="O44" s="2">
+        <v>2372</v>
+      </c>
+      <c r="P44" s="3">
+        <v>423</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>1160</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>882</v>
+      </c>
+      <c r="T44" s="2">
+        <v>182120</v>
       </c>
       <c r="U44">
         <v>211171</v>
       </c>
       <c r="V44">
+        <v>211171</v>
+      </c>
+      <c r="W44">
         <v>194599</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>16572</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>0</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>468810</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>54621</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45">
         <v>71656</v>
@@ -4778,55 +4943,58 @@
       <c r="K45">
         <v>151307</v>
       </c>
-      <c r="L45">
-        <v>324422</v>
-      </c>
-      <c r="M45">
-        <v>229240</v>
-      </c>
-      <c r="N45">
-        <v>39845</v>
-      </c>
-      <c r="O45">
-        <v>524</v>
-      </c>
-      <c r="P45">
-        <v>19099</v>
-      </c>
-      <c r="Q45">
-        <v>27</v>
-      </c>
-      <c r="R45">
-        <v>26993</v>
-      </c>
-      <c r="S45">
-        <v>8694</v>
-      </c>
-      <c r="T45">
+      <c r="L45" s="2">
+        <v>67098</v>
+      </c>
+      <c r="M45" s="2">
+        <v>54873</v>
+      </c>
+      <c r="N45" s="2">
+        <v>6038</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1640</v>
+      </c>
+      <c r="P45" s="3">
+        <v>604</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>2865</v>
+      </c>
+      <c r="R45" s="3">
+        <v>97</v>
+      </c>
+      <c r="S45" s="2">
+        <v>1008</v>
+      </c>
+      <c r="T45" s="2">
+        <v>138049</v>
+      </c>
+      <c r="U45">
         <v>144319</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>137401</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>21944</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>115457</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>6918</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>320132</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>44404</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46">
         <v>64454</v>
@@ -4858,55 +5026,58 @@
       <c r="K46">
         <v>133505</v>
       </c>
-      <c r="L46">
-        <v>108913</v>
-      </c>
-      <c r="M46">
-        <v>101115</v>
-      </c>
-      <c r="N46">
-        <v>2654</v>
-      </c>
-      <c r="O46">
-        <v>831</v>
-      </c>
-      <c r="P46">
-        <v>1100</v>
-      </c>
-      <c r="Q46">
-        <v>60</v>
-      </c>
-      <c r="R46">
-        <v>1094</v>
-      </c>
-      <c r="S46">
-        <v>2059</v>
-      </c>
-      <c r="T46">
+      <c r="L46" s="2">
+        <v>48503</v>
+      </c>
+      <c r="M46" s="2">
+        <v>48584</v>
+      </c>
+      <c r="N46" s="2">
+        <v>5991</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1653</v>
+      </c>
+      <c r="P46" s="3">
+        <v>757</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>1024</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
+        <v>1266</v>
+      </c>
+      <c r="T46" s="2">
+        <v>115118</v>
+      </c>
+      <c r="U46">
         <v>42818</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>19431</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>9188</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>10243</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>23387</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>96981</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>17328</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B47">
         <v>39930</v>
@@ -4938,55 +5109,58 @@
       <c r="K47">
         <v>75345</v>
       </c>
-      <c r="L47">
-        <v>228502</v>
-      </c>
-      <c r="M47">
-        <v>211792</v>
-      </c>
-      <c r="N47">
-        <v>3992</v>
-      </c>
-      <c r="O47">
-        <v>508</v>
-      </c>
-      <c r="P47">
-        <v>6697</v>
-      </c>
-      <c r="Q47">
-        <v>41</v>
-      </c>
-      <c r="R47">
-        <v>1195</v>
-      </c>
-      <c r="S47">
-        <v>4277</v>
-      </c>
-      <c r="T47">
+      <c r="L47" s="2">
+        <v>32072</v>
+      </c>
+      <c r="M47" s="2">
+        <v>25203</v>
+      </c>
+      <c r="N47" s="2">
+        <v>3750</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1165</v>
+      </c>
+      <c r="P47" s="3">
+        <v>510</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>583</v>
+      </c>
+      <c r="R47" s="3">
+        <v>42</v>
+      </c>
+      <c r="S47" s="3">
+        <v>646</v>
+      </c>
+      <c r="T47" s="2">
+        <v>67905</v>
+      </c>
+      <c r="U47">
         <v>119605</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>30673</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>8582</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>22091</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>88932</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>224972</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>13148</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48">
         <v>4998</v>
@@ -5018,55 +5192,58 @@
       <c r="K48">
         <v>15807</v>
       </c>
-      <c r="L48">
-        <v>154859</v>
-      </c>
-      <c r="M48">
-        <v>118130</v>
-      </c>
-      <c r="N48">
-        <v>15590</v>
-      </c>
-      <c r="O48">
-        <v>359</v>
-      </c>
-      <c r="P48">
-        <v>7228</v>
-      </c>
-      <c r="Q48">
-        <v>84</v>
-      </c>
-      <c r="R48">
-        <v>6079</v>
-      </c>
-      <c r="S48">
-        <v>7389</v>
-      </c>
-      <c r="T48">
+      <c r="L48" s="2">
+        <v>3966</v>
+      </c>
+      <c r="M48" s="2">
+        <v>7705</v>
+      </c>
+      <c r="N48" s="2">
+        <v>1126</v>
+      </c>
+      <c r="O48" s="3">
+        <v>191</v>
+      </c>
+      <c r="P48" s="3">
+        <v>83</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>111</v>
+      </c>
+      <c r="R48" s="3">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
+        <v>118</v>
+      </c>
+      <c r="T48" s="2">
+        <v>14165</v>
+      </c>
+      <c r="U48">
         <v>71932</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>48367</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>13422</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>34945</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>23565</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>150847</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>17271</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B49">
         <v>3622</v>
@@ -5098,55 +5275,58 @@
       <c r="K49">
         <v>9797</v>
       </c>
-      <c r="L49">
-        <v>31222</v>
-      </c>
-      <c r="M49">
-        <v>29791</v>
-      </c>
-      <c r="N49">
-        <v>496</v>
-      </c>
-      <c r="O49">
-        <v>48</v>
-      </c>
-      <c r="P49">
-        <v>281</v>
-      </c>
-      <c r="Q49">
-        <v>9</v>
-      </c>
-      <c r="R49">
-        <v>170</v>
-      </c>
-      <c r="S49">
-        <v>427</v>
-      </c>
-      <c r="T49">
+      <c r="L49" s="2">
+        <v>2817</v>
+      </c>
+      <c r="M49" s="2">
+        <v>4517</v>
+      </c>
+      <c r="N49" s="3">
+        <v>533</v>
+      </c>
+      <c r="O49" s="3">
+        <v>205</v>
+      </c>
+      <c r="P49" s="3">
+        <v>69</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>59</v>
+      </c>
+      <c r="R49" s="3">
+        <v>2</v>
+      </c>
+      <c r="S49" s="3">
+        <v>82</v>
+      </c>
+      <c r="T49" s="2">
+        <v>8833</v>
+      </c>
+      <c r="U49">
         <v>13883</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>3732</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>1298</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>2434</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>10151</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>29842</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>3612</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B50">
         <v>6548</v>
@@ -5178,55 +5358,58 @@
       <c r="K50">
         <v>15711</v>
       </c>
-      <c r="L50">
-        <v>17920</v>
-      </c>
-      <c r="M50">
-        <v>17289</v>
-      </c>
-      <c r="N50">
-        <v>182</v>
-      </c>
-      <c r="O50">
-        <v>14</v>
-      </c>
-      <c r="P50">
-        <v>126</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>42</v>
-      </c>
-      <c r="S50">
-        <v>267</v>
-      </c>
-      <c r="T50">
+      <c r="L50" s="2">
+        <v>5350</v>
+      </c>
+      <c r="M50" s="2">
+        <v>6488</v>
+      </c>
+      <c r="N50" s="3">
+        <v>748</v>
+      </c>
+      <c r="O50" s="3">
+        <v>235</v>
+      </c>
+      <c r="P50" s="3">
+        <v>112</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>104</v>
+      </c>
+      <c r="R50" s="3">
+        <v>6</v>
+      </c>
+      <c r="S50" s="3">
+        <v>109</v>
+      </c>
+      <c r="T50" s="2">
+        <v>14090</v>
+      </c>
+      <c r="U50">
         <v>8130</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>1840</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>522</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>1318</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>6290</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>17648</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>2717</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B51">
         <v>18477</v>
@@ -5258,55 +5441,58 @@
       <c r="K51">
         <v>45246</v>
       </c>
-      <c r="L51">
-        <v>34390</v>
-      </c>
-      <c r="M51">
-        <v>31355</v>
-      </c>
-      <c r="N51">
-        <v>1744</v>
-      </c>
-      <c r="O51">
-        <v>143</v>
-      </c>
-      <c r="P51">
-        <v>285</v>
-      </c>
-      <c r="Q51">
-        <v>8</v>
-      </c>
-      <c r="R51">
-        <v>312</v>
-      </c>
-      <c r="S51">
-        <v>543</v>
-      </c>
-      <c r="T51">
+      <c r="L51" s="2">
+        <v>15749</v>
+      </c>
+      <c r="M51" s="2">
+        <v>18236</v>
+      </c>
+      <c r="N51" s="2">
+        <v>1706</v>
+      </c>
+      <c r="O51" s="3">
+        <v>534</v>
+      </c>
+      <c r="P51" s="3">
+        <v>205</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>474</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>397</v>
+      </c>
+      <c r="T51" s="2">
+        <v>39632</v>
+      </c>
+      <c r="U51">
         <v>14992</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>6144</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>1336</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>4808</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>8848</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>31431</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>3825</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B52">
         <v>15009</v>
@@ -5338,55 +5524,58 @@
       <c r="K52">
         <v>46502</v>
       </c>
-      <c r="L52">
-        <v>96422</v>
-      </c>
-      <c r="M52">
-        <v>91286</v>
-      </c>
-      <c r="N52">
-        <v>1623</v>
-      </c>
-      <c r="O52">
-        <v>103</v>
-      </c>
-      <c r="P52">
-        <v>1480</v>
-      </c>
-      <c r="Q52">
-        <v>3</v>
-      </c>
-      <c r="R52">
-        <v>462</v>
-      </c>
-      <c r="S52">
-        <v>1465</v>
-      </c>
-      <c r="T52">
+      <c r="L52" s="2">
+        <v>11982</v>
+      </c>
+      <c r="M52" s="2">
+        <v>24743</v>
+      </c>
+      <c r="N52" s="2">
+        <v>2088</v>
+      </c>
+      <c r="O52" s="3">
+        <v>389</v>
+      </c>
+      <c r="P52" s="3">
+        <v>155</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>309</v>
+      </c>
+      <c r="R52" s="3">
+        <v>23</v>
+      </c>
+      <c r="S52" s="3">
+        <v>291</v>
+      </c>
+      <c r="T52" s="2">
+        <v>42334</v>
+      </c>
+      <c r="U52">
         <v>42052</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>19856</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>6147</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>13709</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>22196</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>94727</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>12971</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B53">
         <v>351643</v>
@@ -5418,55 +5607,58 @@
       <c r="K53">
         <v>757877</v>
       </c>
-      <c r="L53">
-        <v>1483832</v>
-      </c>
-      <c r="M53">
-        <v>1196719</v>
-      </c>
-      <c r="N53">
-        <v>116018</v>
-      </c>
-      <c r="O53">
-        <v>4212</v>
-      </c>
-      <c r="P53">
-        <v>58204</v>
-      </c>
-      <c r="Q53">
-        <v>418</v>
-      </c>
-      <c r="R53">
-        <v>74432</v>
-      </c>
-      <c r="S53">
-        <v>33829</v>
-      </c>
-      <c r="T53">
+      <c r="L53" s="2">
+        <v>292720</v>
+      </c>
+      <c r="M53" s="2">
+        <v>314639</v>
+      </c>
+      <c r="N53" s="2">
+        <v>35931</v>
+      </c>
+      <c r="O53" s="2">
+        <v>8001</v>
+      </c>
+      <c r="P53" s="2">
+        <v>3230</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>5028</v>
+      </c>
+      <c r="R53" s="3">
+        <v>208</v>
+      </c>
+      <c r="S53" s="2">
+        <v>4087</v>
+      </c>
+      <c r="T53" s="2">
+        <v>686490</v>
+      </c>
+      <c r="U53">
         <v>739441</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>739163</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>90648</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>648515</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>278</v>
       </c>
-      <c r="Y53">
+      <c r="Z53">
         <v>1456653</v>
       </c>
-      <c r="Z53">
+      <c r="AA53">
         <v>100133</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B54">
         <v>14424</v>
@@ -5498,55 +5690,58 @@
       <c r="K54">
         <v>35121</v>
       </c>
-      <c r="L54">
-        <v>75116</v>
-      </c>
-      <c r="M54">
-        <v>59949</v>
-      </c>
-      <c r="N54">
-        <v>5990</v>
-      </c>
-      <c r="O54">
-        <v>196</v>
-      </c>
-      <c r="P54">
-        <v>1265</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>4283</v>
-      </c>
-      <c r="S54">
-        <v>3433</v>
-      </c>
-      <c r="T54">
+      <c r="L54" s="2">
+        <v>11913</v>
+      </c>
+      <c r="M54" s="2">
+        <v>13929</v>
+      </c>
+      <c r="N54" s="2">
+        <v>2002</v>
+      </c>
+      <c r="O54" s="3">
+        <v>498</v>
+      </c>
+      <c r="P54" s="3">
+        <v>157</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>502</v>
+      </c>
+      <c r="R54" s="3">
+        <v>27</v>
+      </c>
+      <c r="S54" s="3">
+        <v>194</v>
+      </c>
+      <c r="T54" s="2">
+        <v>30484</v>
+      </c>
+      <c r="U54">
         <v>32218</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>8590</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>2474</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>6116</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>23628</v>
       </c>
-      <c r="Y54">
+      <c r="Z54">
         <v>72592</v>
       </c>
-      <c r="Z54">
+      <c r="AA54">
         <v>10999</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B55">
         <v>9131</v>
@@ -5578,55 +5773,58 @@
       <c r="K55">
         <v>25170</v>
       </c>
-      <c r="L55">
-        <v>48686</v>
-      </c>
-      <c r="M55">
-        <v>46870</v>
-      </c>
-      <c r="N55">
-        <v>327</v>
-      </c>
-      <c r="O55">
-        <v>107</v>
-      </c>
-      <c r="P55">
-        <v>374</v>
-      </c>
-      <c r="Q55">
-        <v>5</v>
-      </c>
-      <c r="R55">
-        <v>256</v>
-      </c>
-      <c r="S55">
-        <v>747</v>
-      </c>
-      <c r="T55">
+      <c r="L55" s="2">
+        <v>7123</v>
+      </c>
+      <c r="M55" s="2">
+        <v>12206</v>
+      </c>
+      <c r="N55" s="2">
+        <v>1054</v>
+      </c>
+      <c r="O55" s="3">
+        <v>299</v>
+      </c>
+      <c r="P55" s="3">
+        <v>104</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>247</v>
+      </c>
+      <c r="R55" s="3">
+        <v>9</v>
+      </c>
+      <c r="S55" s="3">
+        <v>192</v>
+      </c>
+      <c r="T55" s="2">
+        <v>22555</v>
+      </c>
+      <c r="U55">
         <v>22388</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>5413</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>1357</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>4056</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>16975</v>
       </c>
-      <c r="Y55">
+      <c r="Z55">
         <v>48253</v>
       </c>
-      <c r="Z55">
+      <c r="AA55">
         <v>4899</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B56">
         <v>28979</v>
@@ -5658,55 +5856,58 @@
       <c r="K56">
         <v>46004</v>
       </c>
-      <c r="L56">
-        <v>102642</v>
-      </c>
-      <c r="M56">
-        <v>82359</v>
-      </c>
-      <c r="N56">
-        <v>3859</v>
-      </c>
-      <c r="O56">
-        <v>224</v>
-      </c>
-      <c r="P56">
-        <v>9964</v>
-      </c>
-      <c r="Q56">
-        <v>57</v>
-      </c>
-      <c r="R56">
-        <v>1666</v>
-      </c>
-      <c r="S56">
-        <v>4513</v>
-      </c>
-      <c r="T56">
+      <c r="L56" s="2">
+        <v>26093</v>
+      </c>
+      <c r="M56" s="2">
+        <v>9370</v>
+      </c>
+      <c r="N56" s="2">
+        <v>1001</v>
+      </c>
+      <c r="O56" s="2">
+        <v>2358</v>
+      </c>
+      <c r="P56" s="3">
+        <v>439</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>338</v>
+      </c>
+      <c r="R56" s="3">
+        <v>23</v>
+      </c>
+      <c r="S56" s="3">
+        <v>479</v>
+      </c>
+      <c r="T56" s="2">
+        <v>43039</v>
+      </c>
+      <c r="U56">
         <v>49101</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>26372</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>11640</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>14732</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>22729</v>
       </c>
-      <c r="Y56">
+      <c r="Z56">
         <v>89120</v>
       </c>
-      <c r="Z56">
+      <c r="AA56">
         <v>16838</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B57">
         <v>50497</v>
@@ -5738,55 +5939,58 @@
       <c r="K57">
         <v>98141</v>
       </c>
-      <c r="L57">
-        <v>178665</v>
-      </c>
-      <c r="M57">
-        <v>151001</v>
-      </c>
-      <c r="N57">
-        <v>10780</v>
-      </c>
-      <c r="O57">
-        <v>395</v>
-      </c>
-      <c r="P57">
-        <v>3396</v>
-      </c>
-      <c r="Q57">
-        <v>102</v>
-      </c>
-      <c r="R57">
-        <v>5515</v>
-      </c>
-      <c r="S57">
-        <v>7476</v>
-      </c>
-      <c r="T57">
+      <c r="L57" s="2">
+        <v>40674</v>
+      </c>
+      <c r="M57" s="2">
+        <v>30288</v>
+      </c>
+      <c r="N57" s="2">
+        <v>4951</v>
+      </c>
+      <c r="O57" s="2">
+        <v>3192</v>
+      </c>
+      <c r="P57" s="3">
+        <v>731</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>889</v>
+      </c>
+      <c r="R57" s="3">
+        <v>844</v>
+      </c>
+      <c r="S57" s="3">
+        <v>755</v>
+      </c>
+      <c r="T57" s="2">
+        <v>87023</v>
+      </c>
+      <c r="U57">
         <v>85533</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>42106</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>11044</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>31062</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>43427</v>
       </c>
-      <c r="Y57">
+      <c r="Z57">
         <v>170910</v>
       </c>
-      <c r="Z57">
+      <c r="AA57">
         <v>23571</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B58">
         <v>16606</v>
@@ -5818,55 +6022,58 @@
       <c r="K58">
         <v>36376</v>
       </c>
-      <c r="L58">
-        <v>64276</v>
-      </c>
-      <c r="M58">
-        <v>61452</v>
-      </c>
-      <c r="N58">
-        <v>828</v>
-      </c>
-      <c r="O58">
-        <v>174</v>
-      </c>
-      <c r="P58">
-        <v>641</v>
-      </c>
-      <c r="Q58">
-        <v>36</v>
-      </c>
-      <c r="R58">
-        <v>188</v>
-      </c>
-      <c r="S58">
-        <v>957</v>
-      </c>
-      <c r="T58">
+      <c r="L58" s="2">
+        <v>12461</v>
+      </c>
+      <c r="M58" s="2">
+        <v>14317</v>
+      </c>
+      <c r="N58" s="2">
+        <v>1434</v>
+      </c>
+      <c r="O58" s="3">
+        <v>420</v>
+      </c>
+      <c r="P58" s="3">
+        <v>210</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>291</v>
+      </c>
+      <c r="R58" s="3">
+        <v>17</v>
+      </c>
+      <c r="S58" s="3">
+        <v>364</v>
+      </c>
+      <c r="T58" s="2">
+        <v>31716</v>
+      </c>
+      <c r="U58">
         <v>31330</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>18705</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>4539</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>14166</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>12625</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>63306</v>
       </c>
-      <c r="Z58">
+      <c r="AA58">
         <v>5997</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59">
         <v>10882</v>
@@ -5898,55 +6105,58 @@
       <c r="K59">
         <v>28248</v>
       </c>
-      <c r="L59">
-        <v>61616</v>
-      </c>
-      <c r="M59">
-        <v>57686</v>
-      </c>
-      <c r="N59">
-        <v>1969</v>
-      </c>
-      <c r="O59">
-        <v>196</v>
-      </c>
-      <c r="P59">
-        <v>371</v>
-      </c>
-      <c r="Q59">
-        <v>7</v>
-      </c>
-      <c r="R59">
-        <v>518</v>
-      </c>
-      <c r="S59">
-        <v>869</v>
-      </c>
-      <c r="T59">
+      <c r="L59" s="2">
+        <v>8564</v>
+      </c>
+      <c r="M59" s="2">
+        <v>12170</v>
+      </c>
+      <c r="N59" s="2">
+        <v>1440</v>
+      </c>
+      <c r="O59" s="3">
+        <v>373</v>
+      </c>
+      <c r="P59" s="3">
+        <v>161</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>245</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>236</v>
+      </c>
+      <c r="T59" s="2">
+        <v>24773</v>
+      </c>
+      <c r="U59">
         <v>28433</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>9564</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>1528</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>8036</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>18869</v>
       </c>
-      <c r="Y59">
+      <c r="Z59">
         <v>58233</v>
       </c>
-      <c r="Z59">
+      <c r="AA59">
         <v>6578</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60">
         <v>16603</v>
@@ -5978,55 +6188,58 @@
       <c r="K60">
         <v>45018</v>
       </c>
-      <c r="L60">
-        <v>90519</v>
-      </c>
-      <c r="M60">
-        <v>84123</v>
-      </c>
-      <c r="N60">
-        <v>2543</v>
-      </c>
-      <c r="O60">
-        <v>148</v>
-      </c>
-      <c r="P60">
-        <v>725</v>
-      </c>
-      <c r="Q60">
-        <v>105</v>
-      </c>
-      <c r="R60">
-        <v>960</v>
-      </c>
-      <c r="S60">
-        <v>1915</v>
-      </c>
-      <c r="T60">
+      <c r="L60" s="2">
+        <v>12728</v>
+      </c>
+      <c r="M60" s="2">
+        <v>20221</v>
+      </c>
+      <c r="N60" s="2">
+        <v>3159</v>
+      </c>
+      <c r="O60" s="3">
+        <v>531</v>
+      </c>
+      <c r="P60" s="3">
+        <v>214</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>289</v>
+      </c>
+      <c r="R60" s="3">
+        <v>33</v>
+      </c>
+      <c r="S60" s="3">
+        <v>208</v>
+      </c>
+      <c r="T60" s="2">
+        <v>40009</v>
+      </c>
+      <c r="U60">
         <v>43773</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>14262</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>3023</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>11239</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>29511</v>
       </c>
-      <c r="Y60">
+      <c r="Z60">
         <v>89283</v>
       </c>
-      <c r="Z60">
+      <c r="AA60">
         <v>10371</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61">
         <v>296129</v>
@@ -6058,55 +6271,58 @@
       <c r="K61">
         <v>462078</v>
       </c>
-      <c r="L61">
-        <v>968890</v>
-      </c>
-      <c r="M61">
-        <v>622855</v>
-      </c>
-      <c r="N61">
-        <v>144053</v>
-      </c>
-      <c r="O61">
-        <v>3594</v>
-      </c>
-      <c r="P61">
-        <v>58140</v>
-      </c>
-      <c r="Q61">
-        <v>251</v>
-      </c>
-      <c r="R61">
-        <v>110029</v>
-      </c>
-      <c r="S61">
-        <v>29968</v>
-      </c>
-      <c r="T61">
+      <c r="L61" s="2">
+        <v>265256</v>
+      </c>
+      <c r="M61" s="2">
+        <v>119658</v>
+      </c>
+      <c r="N61" s="2">
+        <v>11580</v>
+      </c>
+      <c r="O61" s="2">
+        <v>5658</v>
+      </c>
+      <c r="P61" s="2">
+        <v>2012</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>3400</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="2">
+        <v>3475</v>
+      </c>
+      <c r="T61" s="2">
+        <v>424055</v>
+      </c>
+      <c r="U61">
         <v>471725</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>390072</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>85937</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>304135</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>81653</v>
       </c>
-      <c r="Y61">
+      <c r="Z61">
         <v>945745</v>
       </c>
-      <c r="Z61">
+      <c r="AA61">
         <v>83603</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62">
         <v>4801</v>
@@ -6138,55 +6354,58 @@
       <c r="K62">
         <v>19478</v>
       </c>
-      <c r="L62">
-        <v>40305</v>
-      </c>
-      <c r="M62">
-        <v>36882</v>
-      </c>
-      <c r="N62">
-        <v>1669</v>
-      </c>
-      <c r="O62">
-        <v>203</v>
-      </c>
-      <c r="P62">
-        <v>167</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>569</v>
-      </c>
-      <c r="S62">
-        <v>815</v>
-      </c>
-      <c r="T62">
+      <c r="L62" s="2">
+        <v>3716</v>
+      </c>
+      <c r="M62" s="2">
+        <v>10928</v>
+      </c>
+      <c r="N62" s="2">
+        <v>1514</v>
+      </c>
+      <c r="O62" s="3">
+        <v>134</v>
+      </c>
+      <c r="P62" s="3">
+        <v>54</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>183</v>
+      </c>
+      <c r="R62" s="3">
+        <v>20</v>
+      </c>
+      <c r="S62" s="3">
+        <v>64</v>
+      </c>
+      <c r="T62" s="2">
+        <v>17501</v>
+      </c>
+      <c r="U62">
         <v>18005</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>7317</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>1984</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>5333</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>10688</v>
       </c>
-      <c r="Y62">
+      <c r="Z62">
         <v>37552</v>
       </c>
-      <c r="Z62">
+      <c r="AA62">
         <v>3933</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:27">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63">
         <v>4014</v>
@@ -6218,49 +6437,52 @@
       <c r="K63">
         <v>10778</v>
       </c>
-      <c r="L63">
-        <v>25011</v>
-      </c>
-      <c r="M63">
-        <v>24122</v>
-      </c>
-      <c r="N63">
-        <v>254</v>
-      </c>
-      <c r="O63">
-        <v>51</v>
-      </c>
-      <c r="P63">
-        <v>163</v>
-      </c>
-      <c r="Q63">
-        <v>6</v>
-      </c>
-      <c r="R63">
-        <v>111</v>
-      </c>
-      <c r="S63">
-        <v>304</v>
-      </c>
-      <c r="T63">
+      <c r="L63" s="2">
+        <v>3473</v>
+      </c>
+      <c r="M63" s="2">
+        <v>5089</v>
+      </c>
+      <c r="N63" s="3">
+        <v>571</v>
+      </c>
+      <c r="O63" s="3">
+        <v>126</v>
+      </c>
+      <c r="P63" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>152</v>
+      </c>
+      <c r="R63" s="3">
+        <v>3</v>
+      </c>
+      <c r="S63" s="3">
+        <v>72</v>
+      </c>
+      <c r="T63" s="2">
+        <v>10221</v>
+      </c>
+      <c r="U63">
         <v>11252</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>3787</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>1850</v>
       </c>
-      <c r="W63">
+      <c r="X63">
         <v>1937</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>7465</v>
       </c>
-      <c r="Y63">
+      <c r="Z63">
         <v>23828</v>
       </c>
-      <c r="Z63">
+      <c r="AA63">
         <v>2837</v>
       </c>
     </row>
